--- a/data.xlsx
+++ b/data.xlsx
@@ -1,41 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sansk\Downloads\cartapp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C60A7B-CAD7-4DFC-88FB-E43AB369BF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81ZYZ9yl1hL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backpack Mohave </t>
+  </si>
+  <si>
+    <t>52.45</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61-DwEh1zrL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Indiana Design Tshirt</t>
+  </si>
+  <si>
+    <t>18.90</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81giLCXfxIL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Black Clipped Tshirt</t>
+  </si>
+  <si>
+    <t>13.90</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/7119OAEE+gL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Alder Light 2 Tones</t>
+  </si>
+  <si>
+    <t>68.35</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71dp5f24TbL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Backpack Mohave Gold" Season</t>
+  </si>
+  <si>
+    <t>52.84</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71Kj-jV5v8L._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Element Tshirt</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71jlppwpjmL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Heavy Puff TW Chaqueta</t>
+  </si>
+  <si>
+    <t>168.75</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71BSdq6OzDL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hombre Mid Grey Tshirt</t>
+  </si>
+  <si>
+    <t>47.50</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81RAeKF-8wL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Sweat Shirt</t>
+  </si>
+  <si>
+    <t>64.94</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/717tHbEHDnL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Camiseta Tshirt Signature</t>
+  </si>
+  <si>
+    <t>29.84</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81rOs3LA0LL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scateboard Pre-Built Complete </t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61-xQZORAKL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Grey Printed Tshirt</t>
+  </si>
+  <si>
+    <t>27.06</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71RUdoglJML._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Alder Light Olive</t>
+  </si>
+  <si>
+    <t>86.52</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/714tTmj4KvL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Puff TW Negro Jacket</t>
+  </si>
+  <si>
+    <t>73.50</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>expiry</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>packsize</t>
+  </si>
+  <si>
+    <t>gst</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,14 +211,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,270 +552,502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="10.09765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>image</v>
-      </c>
-      <c r="C1" t="str">
-        <v>title</v>
-      </c>
-      <c r="D1" t="str">
-        <v>price</v>
-      </c>
-      <c r="E1" t="str">
-        <v>quantity</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>https://m.media-amazon.com/images/I/81ZYZ9yl1hL._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C2" t="str">
-        <v xml:space="preserve">Backpack Mohave </v>
-      </c>
-      <c r="D2" t="str">
-        <v>52.45</v>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2">
         <v>99</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44727</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>https://m.media-amazon.com/images/I/61-DwEh1zrL._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Indiana Design Tshirt</v>
-      </c>
-      <c r="D3" t="str">
-        <v>18.90</v>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
       <c r="E3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44728</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>https://m.media-amazon.com/images/I/81giLCXfxIL._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Black Clipped Tshirt</v>
-      </c>
-      <c r="D4" t="str">
-        <v>13.90</v>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
       <c r="E4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44729</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>https://m.media-amazon.com/images/I/7119OAEE+gL._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Alder Light 2 Tones</v>
-      </c>
-      <c r="D5" t="str">
-        <v>68.35</v>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44730</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>https://m.media-amazon.com/images/I/71dp5f24TbL._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Backpack Mohave Gold" Season</v>
-      </c>
-      <c r="D6" t="str">
-        <v>52.84</v>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44731</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>https://m.media-amazon.com/images/I/71Kj-jV5v8L._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Element Tshirt</v>
-      </c>
-      <c r="D7" t="str">
-        <v>13.90</v>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44732</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>https://m.media-amazon.com/images/I/71jlppwpjmL._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Heavy Puff TW Chaqueta</v>
-      </c>
-      <c r="D8" t="str">
-        <v>168.75</v>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44733</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>https://m.media-amazon.com/images/I/71BSdq6OzDL._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C9" t="str">
-        <v xml:space="preserve"> Hombre Mid Grey Tshirt</v>
-      </c>
-      <c r="D9" t="str">
-        <v>47.50</v>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44734</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>https://m.media-amazon.com/images/I/81RAeKF-8wL._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Sweat Shirt</v>
-      </c>
-      <c r="D10" t="str">
-        <v>64.94</v>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44735</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>https://m.media-amazon.com/images/I/717tHbEHDnL._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Camiseta Tshirt Signature</v>
-      </c>
-      <c r="D11" t="str">
-        <v>29.84</v>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44736</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <v>https://m.media-amazon.com/images/I/81rOs3LA0LL._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C12" t="str">
-        <v xml:space="preserve">Scateboard Pre-Built Complete </v>
-      </c>
-      <c r="D12" t="str">
-        <v>99.00</v>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44737</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <v>https://m.media-amazon.com/images/I/61-xQZORAKL._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Grey Printed Tshirt</v>
-      </c>
-      <c r="D13" t="str">
-        <v>27.06</v>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44738</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <v>https://m.media-amazon.com/images/I/71RUdoglJML._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Alder Light Olive</v>
-      </c>
-      <c r="D14" t="str">
-        <v>86.52</v>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1">
+        <v>44739</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <v>https://m.media-amazon.com/images/I/714tTmj4KvL._AC_UL640_FMwebp_QL65_.jpg</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Puff TW Negro Jacket</v>
-      </c>
-      <c r="D15" t="str">
-        <v>73.50</v>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1">
+        <v>44740</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E15"/>
+    <ignoredError sqref="A1:E15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -432,8 +432,8 @@
       <c r="A2" t="str">
         <v>52.45</v>
       </c>
-      <c r="B2" t="str">
-        <v>99</v>
+      <c r="B2">
+        <v>98</v>
       </c>
       <c r="C2" t="str">
         <v>Backpack</v>
@@ -450,8 +450,8 @@
       <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>2</v>
+      <c r="H2" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,41 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sansk\Downloads\cartapp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AD0565-2AE0-4006-A8D1-E941A500A670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>expiry</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>packsize</t>
+  </si>
+  <si>
+    <t>gst</t>
+  </si>
+  <si>
+    <t>52.45</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Indiana Design Tshirt</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>13.90</t>
+  </si>
+  <si>
+    <t>Black Clipped Tshirt</t>
+  </si>
+  <si>
+    <t>68.35</t>
+  </si>
+  <si>
+    <t>Alder Light 2 Tones</t>
+  </si>
+  <si>
+    <t>52.84</t>
+  </si>
+  <si>
+    <t>Backpack Mohave Gold" Season</t>
+  </si>
+  <si>
+    <t>Element Tshirt</t>
+  </si>
+  <si>
+    <t>168.75</t>
+  </si>
+  <si>
+    <t>Heavy Puff TW Chaqueta</t>
+  </si>
+  <si>
+    <t>47.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hombre Mid Grey Tshirt</t>
+  </si>
+  <si>
+    <t>64.94</t>
+  </si>
+  <si>
+    <t>Sweat Shirt</t>
+  </si>
+  <si>
+    <t>29.84</t>
+  </si>
+  <si>
+    <t>Camiseta Tshirt Signature</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scateboard Pre-Built Complete </t>
+  </si>
+  <si>
+    <t>27.06</t>
+  </si>
+  <si>
+    <t>Grey Printed Tshirt</t>
+  </si>
+  <si>
+    <t>86.52</t>
+  </si>
+  <si>
+    <t>Alder Light Olive</t>
+  </si>
+  <si>
+    <t>73.50</t>
+  </si>
+  <si>
+    <t>Puff TW Negro Jacket</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +180,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,405 +512,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>price</v>
-      </c>
-      <c r="B1" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="C1" t="str">
-        <v>title</v>
-      </c>
-      <c r="D1" t="str">
-        <v>company</v>
-      </c>
-      <c r="E1" t="str">
-        <v>expiry</v>
-      </c>
-      <c r="F1" t="str">
-        <v>batch</v>
-      </c>
-      <c r="G1" t="str">
-        <v>packsize</v>
-      </c>
-      <c r="H1" t="str">
-        <v>gst</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>52.45</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>98</v>
       </c>
-      <c r="C2" t="str">
-        <v>Backpack</v>
-      </c>
-      <c r="D2" t="str">
-        <v>abc</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
         <v>44727</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2" t="str">
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>44728</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>44729</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>44730</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>18</v>
-      </c>
-      <c r="B3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>44731</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>44732</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>44733</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
         <v>8</v>
       </c>
-      <c r="C3" t="str">
-        <v>Indiana Design Tshirt</v>
-      </c>
-      <c r="D3" t="str">
-        <v>xyz</v>
-      </c>
-      <c r="E3">
-        <v>44728</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>13.90</v>
-      </c>
-      <c r="B4">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>44734</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="C4" t="str">
-        <v>Black Clipped Tshirt</v>
-      </c>
-      <c r="D4" t="str">
-        <v>abc</v>
-      </c>
-      <c r="E4">
-        <v>44729</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>68.35</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Alder Light 2 Tones</v>
-      </c>
-      <c r="D5" t="str">
-        <v>abc</v>
-      </c>
-      <c r="E5">
-        <v>44730</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>52.84</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Backpack Mohave Gold" Season</v>
-      </c>
-      <c r="D6" t="str">
-        <v>abc</v>
-      </c>
-      <c r="E6">
-        <v>44731</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>13.90</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Element Tshirt</v>
-      </c>
-      <c r="D7" t="str">
-        <v>abc</v>
-      </c>
-      <c r="E7">
-        <v>44732</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>168.75</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Heavy Puff TW Chaqueta</v>
-      </c>
-      <c r="D8" t="str">
-        <v>abc</v>
-      </c>
-      <c r="E8">
-        <v>44733</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>47.50</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="str">
-        <v xml:space="preserve"> Hombre Mid Grey Tshirt</v>
-      </c>
-      <c r="D9" t="str">
-        <v>abc</v>
-      </c>
-      <c r="E9">
-        <v>44734</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>64.94</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Sweat Shirt</v>
-      </c>
-      <c r="D10" t="str">
-        <v>abc</v>
-      </c>
-      <c r="E10">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
         <v>44735</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
       <c r="H10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>29.84</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Camiseta Tshirt Signature</v>
-      </c>
-      <c r="D11" t="str">
-        <v>abc</v>
-      </c>
-      <c r="E11">
+      <c r="I10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
         <v>44736</v>
       </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>99.00</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="str">
-        <v xml:space="preserve">Scateboard Pre-Built Complete </v>
-      </c>
-      <c r="D12" t="str">
-        <v>abc</v>
-      </c>
-      <c r="E12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
         <v>44737</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>11</v>
       </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
       <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>27.06</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Grey Printed Tshirt</v>
-      </c>
-      <c r="D13" t="str">
-        <v>abc</v>
-      </c>
-      <c r="E13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
         <v>44738</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>12</v>
       </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
       <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>86.52</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Alder Light Olive</v>
-      </c>
-      <c r="D14" t="str">
-        <v>abc</v>
-      </c>
-      <c r="E14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
         <v>44739</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>13</v>
       </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
       <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>73.50</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Puff TW Negro Jacket</v>
-      </c>
-      <c r="D15" t="str">
-        <v>abc</v>
-      </c>
-      <c r="E15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
         <v>44740</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>14</v>
       </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
       <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H15"/>
+    <ignoredError sqref="B1:I15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sansk\Downloads\cartapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AD0565-2AE0-4006-A8D1-E941A500A670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9778C1-2E8E-448F-A1D6-1330A0E81E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
+    <t>serial</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
@@ -76,7 +79,7 @@
     <t>68.35</t>
   </si>
   <si>
-    <t>Alder Light 2 Tones</t>
+    <t xml:space="preserve">Alder Light 2 </t>
   </si>
   <si>
     <t>52.84</t>
@@ -97,9 +100,6 @@
     <t>47.50</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hombre Mid Grey Tshirt</t>
-  </si>
-  <si>
     <t>64.94</t>
   </si>
   <si>
@@ -136,7 +136,7 @@
     <t>Puff TW Negro Jacket</t>
   </si>
   <si>
-    <t>serial</t>
+    <t>Hombre Mid Grey Tshirt</t>
   </si>
 </sst>
 </file>
@@ -516,55 +516,58 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="22.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>44727</v>
@@ -576,24 +579,24 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>44728</v>
@@ -608,21 +611,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>44729</v>
@@ -637,21 +640,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>44730</v>
@@ -666,21 +669,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>44731</v>
@@ -695,21 +698,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>44732</v>
@@ -724,21 +727,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>44733</v>
@@ -753,21 +756,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>44734</v>
@@ -782,7 +785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -796,7 +799,7 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>44735</v>
@@ -811,7 +814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -825,7 +828,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>44736</v>
@@ -840,7 +843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -854,7 +857,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>44737</v>
@@ -869,7 +872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -883,7 +886,7 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>44738</v>
@@ -898,7 +901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -912,7 +915,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>44739</v>
@@ -927,7 +930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -941,7 +944,7 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>44740</v>
@@ -957,10 +960,12 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I17">
+    <sortCondition ref="A1:A17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:I15" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sansk\Downloads\cartapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9778C1-2E8E-448F-A1D6-1330A0E81E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AD0565-2AE0-4006-A8D1-E941A500A670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,121 +22,121 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>expiry</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>packsize</t>
+  </si>
+  <si>
+    <t>gst</t>
+  </si>
+  <si>
+    <t>52.45</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Indiana Design Tshirt</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>13.90</t>
+  </si>
+  <si>
+    <t>Black Clipped Tshirt</t>
+  </si>
+  <si>
+    <t>68.35</t>
+  </si>
+  <si>
+    <t>Alder Light 2 Tones</t>
+  </si>
+  <si>
+    <t>52.84</t>
+  </si>
+  <si>
+    <t>Backpack Mohave Gold" Season</t>
+  </si>
+  <si>
+    <t>Element Tshirt</t>
+  </si>
+  <si>
+    <t>168.75</t>
+  </si>
+  <si>
+    <t>Heavy Puff TW Chaqueta</t>
+  </si>
+  <si>
+    <t>47.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hombre Mid Grey Tshirt</t>
+  </si>
+  <si>
+    <t>64.94</t>
+  </si>
+  <si>
+    <t>Sweat Shirt</t>
+  </si>
+  <si>
+    <t>29.84</t>
+  </si>
+  <si>
+    <t>Camiseta Tshirt Signature</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scateboard Pre-Built Complete </t>
+  </si>
+  <si>
+    <t>27.06</t>
+  </si>
+  <si>
+    <t>Grey Printed Tshirt</t>
+  </si>
+  <si>
+    <t>86.52</t>
+  </si>
+  <si>
+    <t>Alder Light Olive</t>
+  </si>
+  <si>
+    <t>73.50</t>
+  </si>
+  <si>
+    <t>Puff TW Negro Jacket</t>
+  </si>
+  <si>
     <t>serial</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>expiry</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>packsize</t>
-  </si>
-  <si>
-    <t>gst</t>
-  </si>
-  <si>
-    <t>52.45</t>
-  </si>
-  <si>
-    <t>Backpack</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Indiana Design Tshirt</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>13.90</t>
-  </si>
-  <si>
-    <t>Black Clipped Tshirt</t>
-  </si>
-  <si>
-    <t>68.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alder Light 2 </t>
-  </si>
-  <si>
-    <t>52.84</t>
-  </si>
-  <si>
-    <t>Backpack Mohave Gold" Season</t>
-  </si>
-  <si>
-    <t>Element Tshirt</t>
-  </si>
-  <si>
-    <t>168.75</t>
-  </si>
-  <si>
-    <t>Heavy Puff TW Chaqueta</t>
-  </si>
-  <si>
-    <t>47.50</t>
-  </si>
-  <si>
-    <t>64.94</t>
-  </si>
-  <si>
-    <t>Sweat Shirt</t>
-  </si>
-  <si>
-    <t>29.84</t>
-  </si>
-  <si>
-    <t>Camiseta Tshirt Signature</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scateboard Pre-Built Complete </t>
-  </si>
-  <si>
-    <t>27.06</t>
-  </si>
-  <si>
-    <t>Grey Printed Tshirt</t>
-  </si>
-  <si>
-    <t>86.52</t>
-  </si>
-  <si>
-    <t>Alder Light Olive</t>
-  </si>
-  <si>
-    <t>73.50</t>
-  </si>
-  <si>
-    <t>Puff TW Negro Jacket</t>
-  </si>
-  <si>
-    <t>Hombre Mid Grey Tshirt</t>
   </si>
 </sst>
 </file>
@@ -516,58 +516,55 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="22.796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>44727</v>
@@ -579,24 +576,24 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
       <c r="F3">
         <v>44728</v>
@@ -611,21 +608,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>44729</v>
@@ -640,21 +637,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>44730</v>
@@ -669,21 +666,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>44731</v>
@@ -698,21 +695,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>44732</v>
@@ -727,21 +724,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>44733</v>
@@ -756,21 +753,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>44734</v>
@@ -785,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -799,7 +796,7 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>44735</v>
@@ -814,7 +811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -828,7 +825,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>44736</v>
@@ -843,7 +840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -857,7 +854,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>44737</v>
@@ -872,7 +869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -886,7 +883,7 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>44738</v>
@@ -901,7 +898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -915,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>44739</v>
@@ -930,7 +927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -944,7 +941,7 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>44740</v>
@@ -960,12 +957,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I17">
-    <sortCondition ref="A1:A17"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I1" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:I15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,149 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sansk\Downloads\cartapp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AD0565-2AE0-4006-A8D1-E941A500A670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>expiry</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>packsize</t>
-  </si>
-  <si>
-    <t>gst</t>
-  </si>
-  <si>
-    <t>52.45</t>
-  </si>
-  <si>
-    <t>Backpack</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Indiana Design Tshirt</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>13.90</t>
-  </si>
-  <si>
-    <t>Black Clipped Tshirt</t>
-  </si>
-  <si>
-    <t>68.35</t>
-  </si>
-  <si>
-    <t>Alder Light 2 Tones</t>
-  </si>
-  <si>
-    <t>52.84</t>
-  </si>
-  <si>
-    <t>Backpack Mohave Gold" Season</t>
-  </si>
-  <si>
-    <t>Element Tshirt</t>
-  </si>
-  <si>
-    <t>168.75</t>
-  </si>
-  <si>
-    <t>Heavy Puff TW Chaqueta</t>
-  </si>
-  <si>
-    <t>47.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hombre Mid Grey Tshirt</t>
-  </si>
-  <si>
-    <t>64.94</t>
-  </si>
-  <si>
-    <t>Sweat Shirt</t>
-  </si>
-  <si>
-    <t>29.84</t>
-  </si>
-  <si>
-    <t>Camiseta Tshirt Signature</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scateboard Pre-Built Complete </t>
-  </si>
-  <si>
-    <t>27.06</t>
-  </si>
-  <si>
-    <t>Grey Printed Tshirt</t>
-  </si>
-  <si>
-    <t>86.52</t>
-  </si>
-  <si>
-    <t>Alder Light Olive</t>
-  </si>
-  <si>
-    <t>73.50</t>
-  </si>
-  <si>
-    <t>Puff TW Negro Jacket</t>
-  </si>
-  <si>
-    <t>serial</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,14 +72,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -512,59 +396,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>serial</v>
+      </c>
+      <c r="B1" t="str">
+        <v>price</v>
+      </c>
+      <c r="C1" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="D1" t="str">
+        <v>title</v>
+      </c>
+      <c r="E1" t="str">
+        <v>company</v>
+      </c>
+      <c r="F1" t="str">
+        <v>expiry</v>
+      </c>
+      <c r="G1" t="str">
+        <v>batch</v>
+      </c>
+      <c r="H1" t="str">
+        <v>packsize</v>
+      </c>
+      <c r="I1" t="str">
+        <v>gst</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="B2" t="str">
+        <v>52.45</v>
       </c>
       <c r="C2">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="D2" t="str">
+        <v>Backpa</v>
+      </c>
+      <c r="E2" t="str">
+        <v>abcd</v>
       </c>
       <c r="F2">
         <v>44727</v>
@@ -575,25 +456,25 @@
       <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
+      <c r="B3" t="str">
+        <v>18</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+      <c r="D3" t="str">
+        <v>Indiana  Tshirt</v>
+      </c>
+      <c r="E3" t="str">
+        <v>xyz</v>
       </c>
       <c r="F3">
         <v>44728</v>
@@ -608,21 +489,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
+      <c r="B4" t="str">
+        <v>13.90</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
+      <c r="D4" t="str">
+        <v>Back Clipped Tshirt</v>
+      </c>
+      <c r="E4" t="str">
+        <v>abc</v>
       </c>
       <c r="F4">
         <v>44729</v>
@@ -637,21 +518,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
+      <c r="B5" t="str">
+        <v>68.35</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
+      <c r="D5" t="str">
+        <v>Alder Light 2 Tones</v>
+      </c>
+      <c r="E5" t="str">
+        <v>abc</v>
       </c>
       <c r="F5">
         <v>44730</v>
@@ -666,21 +547,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
+      <c r="B6" t="str">
+        <v>52.84</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
+      <c r="D6" t="str">
+        <v>Backpack Mohave Gold" Season</v>
+      </c>
+      <c r="E6" t="str">
+        <v>abc</v>
       </c>
       <c r="F6">
         <v>44731</v>
@@ -695,21 +576,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
+      <c r="B7" t="str">
+        <v>13.90</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
+      <c r="D7" t="str">
+        <v>Element Tshirt</v>
+      </c>
+      <c r="E7" t="str">
+        <v>abc</v>
       </c>
       <c r="F7">
         <v>44732</v>
@@ -724,21 +605,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
+      <c r="B8" t="str">
+        <v>168.75</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
+      <c r="D8" t="str">
+        <v>Heavy Puff TW Chaqueta</v>
+      </c>
+      <c r="E8" t="str">
+        <v>abc</v>
       </c>
       <c r="F8">
         <v>44733</v>
@@ -753,21 +634,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
+      <c r="B9" t="str">
+        <v>47.50</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
+      <c r="D9" t="str">
+        <v xml:space="preserve"> Hombre Mid Grey Tshirt</v>
+      </c>
+      <c r="E9" t="str">
+        <v>abc</v>
       </c>
       <c r="F9">
         <v>44734</v>
@@ -782,21 +663,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
+      <c r="B10" t="str">
+        <v>64.94</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
+      <c r="D10" t="str">
+        <v>Sweat Shirt</v>
+      </c>
+      <c r="E10" t="str">
+        <v>abc</v>
       </c>
       <c r="F10">
         <v>44735</v>
@@ -811,21 +692,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
+      <c r="B11" t="str">
+        <v>29.84</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
+      <c r="D11" t="str">
+        <v>Camiseta Tshirt Signature</v>
+      </c>
+      <c r="E11" t="str">
+        <v>abc</v>
       </c>
       <c r="F11">
         <v>44736</v>
@@ -840,21 +721,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
+      <c r="B12" t="str">
+        <v>99.00</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
+      <c r="D12" t="str">
+        <v xml:space="preserve">Scateboard Pre-Built Complete </v>
+      </c>
+      <c r="E12" t="str">
+        <v>abc</v>
       </c>
       <c r="F12">
         <v>44737</v>
@@ -869,21 +750,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
+      <c r="B13" t="str">
+        <v>27.06</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
+      <c r="D13" t="str">
+        <v>Grey Printed Tshirt</v>
+      </c>
+      <c r="E13" t="str">
+        <v>abc</v>
       </c>
       <c r="F13">
         <v>44738</v>
@@ -898,21 +779,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
+      <c r="B14" t="str">
+        <v>86.52</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
+      <c r="D14" t="str">
+        <v>Alder Light Olive</v>
+      </c>
+      <c r="E14" t="str">
+        <v>abc</v>
       </c>
       <c r="F14">
         <v>44739</v>
@@ -927,21 +808,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
+      <c r="B15" t="str">
+        <v>73.50</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
+      <c r="D15" t="str">
+        <v>Puff TW Negro Jacket</v>
+      </c>
+      <c r="E15" t="str">
+        <v>abc</v>
       </c>
       <c r="F15">
         <v>44740</v>
@@ -957,10 +838,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:I15" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -439,10 +439,10 @@
         <v>52.45</v>
       </c>
       <c r="C2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2" t="str">
-        <v>Backpa</v>
+        <v>Backpack</v>
       </c>
       <c r="E2" t="str">
         <v>abcd</v>
@@ -468,7 +468,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="str">
         <v>Indiana  Tshirt</v>
@@ -497,7 +497,7 @@
         <v>13.90</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="str">
         <v>Back Clipped Tshirt</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -729,7 +729,7 @@
         <v>99.00</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="str">
         <v xml:space="preserve">Scateboard Pre-Built Complete </v>
@@ -758,7 +758,7 @@
         <v>27.06</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="str">
         <v>Grey Printed Tshirt</v>
@@ -787,7 +787,7 @@
         <v>86.52</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="str">
         <v>Alder Light Olive</v>
@@ -816,7 +816,7 @@
         <v>73.50</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="str">
         <v>Puff TW Negro Jacket</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -439,7 +439,7 @@
         <v>52.45</v>
       </c>
       <c r="C2">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" t="str">
         <v>Backpack</v>
@@ -467,8 +467,8 @@
       <c r="B3" t="str">
         <v>18</v>
       </c>
-      <c r="C3">
-        <v>6</v>
+      <c r="C3" t="str">
+        <v>10</v>
       </c>
       <c r="D3" t="str">
         <v>Indiana  Tshirt</v>
